--- a/data/trans_dic/P32C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,97</t>
+          <t>0,32; 2,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,64</t>
+          <t>1,16; 5,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,53</t>
+          <t>0,39; 2,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,58</t>
+          <t>0,68; 3,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,32</t>
+          <t>0,11; 1,35</t>
         </is>
       </c>
     </row>
@@ -864,27 +865,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,24</t>
+          <t>0,72; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,04</t>
+          <t>0,45; 4,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,84</t>
+          <t>0,08; 2,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -904,22 +905,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,03</t>
+          <t>0,45; 3,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,6</t>
+          <t>0,24; 2,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,78</t>
+          <t>0,05; 1,66</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,24</t>
+          <t>0,58; 3,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,77</t>
+          <t>0,28; 2,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,19</t>
+          <t>0,34; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,26</t>
+          <t>0,33; 3,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,7 +1035,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 9,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1045,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,74</t>
+          <t>0,48; 2,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,17</t>
+          <t>0,22; 2,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,17</t>
+          <t>0,3; 2,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,53</t>
+          <t>0,28; 2,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,16</t>
+          <t>1,47; 4,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,49</t>
+          <t>1,18; 3,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,41</t>
+          <t>0,99; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,58</t>
+          <t>0,54; 2,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,78</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,35</t>
+          <t>1,34; 3,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,59</t>
+          <t>0,94; 2,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,44</t>
+          <t>0,88; 2,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,64</t>
+          <t>0,31; 1,65</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1285,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,31</t>
+          <t>1,29; 5,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,2</t>
+          <t>1,57; 5,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,54</t>
+          <t>1,07; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,99</t>
+          <t>1,47; 6,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,86</t>
+          <t>0,0; 6,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,41</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,27 +1320,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,92</t>
+          <t>0,41; 4,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,91</t>
+          <t>1,11; 4,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,7</t>
+          <t>1,13; 3,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,04</t>
+          <t>0,64; 2,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,23</t>
+          <t>1,43; 4,33</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1425,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,21</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,22</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,25</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,73</t>
+          <t>0,37; 3,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,31</t>
+          <t>0,28; 2,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,85</t>
+          <t>0,47; 2,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,27</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,59</t>
+          <t>1,3; 2,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,81</t>
+          <t>1,45; 2,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,29</t>
+          <t>1,15; 2,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,86</t>
+          <t>0,83; 1,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,81</t>
+          <t>0,39; 1,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,15</t>
+          <t>0,26; 1,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,62</t>
+          <t>0,3; 1,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,14</t>
+          <t>1,13; 2,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,93</t>
+          <t>1,01; 1,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,7</t>
+          <t>0,86; 1,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,5</t>
+          <t>0,69; 1,55</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha bebido alguna vez para calmar los nervios o para evitar la resaca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3590</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7552</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7552</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2195</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>928; 8237</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3393; 15226</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6197</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4451</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5278</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2105</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2034</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4291</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1626; 9318</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2980; 15241</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6805</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>495; 6015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2795</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8811</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1822; 13842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1058; 9943</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>161; 6283</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5217</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2102</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1230</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9439</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1797; 14049</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1028; 9156</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>164; 5739</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5316</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3856</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2448</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5316</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4178</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4960</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2448</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1975; 11261</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1074; 10056</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1116; 11011</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>699; 6732</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5438</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1934; 11729</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1023; 10313</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1130; 11328</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>701; 6594</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16942</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13391</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12763</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6416</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18400</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14392</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14861</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8442</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9864; 27763</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7732; 21943</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6512; 21089</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2760; 12537</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7215</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4911</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6928</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6388</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11529; 29514</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8300; 23114</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8351; 24609</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2860; 15215</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6615</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9287</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7219</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2676</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9291</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10299</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9297</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2788; 12934</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4788; 16076</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3335; 14820</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3415; 14162</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9309</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7095</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>541; 5323</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3960; 16528</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5501; 17756</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3166; 14321</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5179; 15728</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4928</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5301</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5526</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5838</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4530</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7130</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5130</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>920; 8209</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11422</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1009; 9118</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7498</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1921; 11125</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11196</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35262</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>40920</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31963</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>7642</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>43443</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>43958</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>38173</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>26459</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24430; 48491</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>29486; 57149</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22618; 44619</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12777; 28667</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3529; 16377</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>995; 8131</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2905; 13569</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3061; 16709</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31373; 58458</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31034; 58411</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>26733; 52523</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>17539; 39431</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P32C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
